--- a/00_metadaten/quizdidaktik_keywords.xlsx
+++ b/00_metadaten/quizdidaktik_keywords.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t xml:space="preserve">Programmname</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Referatsbewerter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schülerreferate, Bewertung, mündliche Noten, Transparenz</t>
   </si>
   <si>
     <t xml:space="preserve">Schriftliche Addition</t>
@@ -200,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,11 +232,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,10 +308,10 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.02"/>
@@ -467,93 +465,96 @@
       <c r="A19" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
